--- a/GBDS AUGUST FILES 2025/Guillermo Sample Promo Acknow.xlsx
+++ b/GBDS AUGUST FILES 2025/Guillermo Sample Promo Acknow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS AUGUST FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07C46D3-4973-4356-8934-DC437B1B6587}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DE036B-E704-4BC1-8824-7CB5E6BC65EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -814,54 +814,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -872,79 +824,127 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1478,23 +1478,23 @@
       <c r="O10" s="20"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="54" t="s">
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="56"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="88"/>
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1502,53 +1502,53 @@
         <v>30</v>
       </c>
       <c r="C12" s="90"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="75" t="s">
+      <c r="D12" s="91"/>
+      <c r="E12" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="75" t="s">
+      <c r="H12" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="81"/>
-      <c r="J12" s="50" t="s">
+      <c r="I12" s="84"/>
+      <c r="J12" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="52" t="s">
+      <c r="K12" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52" t="s">
+      <c r="L12" s="97"/>
+      <c r="M12" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="N12" s="52" t="s">
+      <c r="N12" s="97" t="s">
         <v>34</v>
       </c>
       <c r="O12" s="25"/>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="91"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="51"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="94"/>
       <c r="K13" s="33" t="s">
         <v>35</v>
       </c>
       <c r="L13" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
       <c r="O13" s="25"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1561,7 +1561,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="77" t="s">
+      <c r="I14" s="78" t="s">
         <v>8</v>
       </c>
       <c r="J14" s="40" t="s">
@@ -1574,16 +1574,16 @@
       <c r="O14" s="20"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="2"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="78"/>
+      <c r="I15" s="72"/>
       <c r="J15" s="41" t="s">
         <v>20</v>
       </c>
@@ -1594,16 +1594,16 @@
       <c r="O15" s="20"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="2"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="78"/>
+      <c r="I16" s="72"/>
       <c r="J16" s="41" t="s">
         <v>18</v>
       </c>
@@ -1614,16 +1614,16 @@
       <c r="O16" s="20"/>
     </row>
     <row r="17" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="2"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="78"/>
+      <c r="I17" s="72"/>
       <c r="J17" s="41"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1632,16 +1632,16 @@
       <c r="O17" s="20"/>
     </row>
     <row r="18" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="2"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="78"/>
+      <c r="I18" s="72"/>
       <c r="J18" s="41"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1650,16 +1650,16 @@
       <c r="O18" s="20"/>
     </row>
     <row r="19" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="2"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="78"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="41"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1668,16 +1668,16 @@
       <c r="O19" s="20"/>
     </row>
     <row r="20" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="71"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="2"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="78" t="s">
+      <c r="I20" s="72" t="s">
         <v>9</v>
       </c>
       <c r="J20" s="40" t="s">
@@ -1699,7 +1699,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="2"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="78"/>
+      <c r="I21" s="72"/>
       <c r="J21" s="41" t="s">
         <v>20</v>
       </c>
@@ -1710,16 +1710,16 @@
       <c r="O21" s="20"/>
     </row>
     <row r="22" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="2"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="78"/>
+      <c r="I22" s="72"/>
       <c r="J22" s="41" t="s">
         <v>18</v>
       </c>
@@ -1730,14 +1730,14 @@
       <c r="O22" s="20"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="96"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="98"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="75"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="2"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="94" t="s">
+      <c r="I23" s="76" t="s">
         <v>10</v>
       </c>
       <c r="J23" s="7"/>
@@ -1748,14 +1748,14 @@
       <c r="O23" s="20"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="96"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="98"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="2"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="95"/>
+      <c r="I24" s="77"/>
       <c r="J24" s="7"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1764,14 +1764,14 @@
       <c r="O24" s="20"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="96"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="98"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="2"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="77"/>
+      <c r="I25" s="78"/>
       <c r="J25" s="7"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1780,50 +1780,50 @@
       <c r="O25" s="20"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="66"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="67" t="s">
+      <c r="E26" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="60"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="55"/>
       <c r="N26" s="13"/>
       <c r="O26" s="20"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="74"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="67" t="s">
+      <c r="E27" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
       <c r="H27" s="14"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="62"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="57"/>
       <c r="N27" s="13"/>
       <c r="O27" s="20"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="66"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="13"/>
       <c r="E28" s="19" t="s">
         <v>12</v>
@@ -1831,76 +1831,76 @@
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="14"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="57" t="s">
+      <c r="I28" s="52"/>
+      <c r="J28" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
       <c r="N28" s="15"/>
       <c r="O28" s="20"/>
     </row>
     <row r="29" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="66"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="67" t="s">
+      <c r="E29" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
       <c r="H29" s="14"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="70" t="s">
+      <c r="I29" s="52"/>
+      <c r="J29" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
       <c r="N29" s="13"/>
       <c r="O29" s="20"/>
     </row>
     <row r="30" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="85" t="s">
+      <c r="B30" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
       <c r="H30" s="43"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="72" t="s">
+      <c r="I30" s="53"/>
+      <c r="J30" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
       <c r="N30" s="13"/>
       <c r="O30" s="20"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="23"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="65" t="s">
+      <c r="D31" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
       <c r="J31" s="10"/>
-      <c r="K31" s="65" t="s">
+      <c r="K31" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
       <c r="O31" s="20"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
@@ -1930,41 +1930,41 @@
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="23"/>
       <c r="C34" s="19"/>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
       <c r="J34" s="19"/>
-      <c r="K34" s="64" t="s">
+      <c r="K34" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
       <c r="O34" s="20"/>
     </row>
     <row r="35" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="23"/>
       <c r="C35" s="19"/>
-      <c r="D35" s="63" t="s">
+      <c r="D35" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
       <c r="J35" s="19"/>
-      <c r="K35" s="63" t="s">
+      <c r="K35" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
       <c r="O35" s="20"/>
     </row>
     <row r="36" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2191,23 +2191,23 @@
       <c r="O47" s="20"/>
     </row>
     <row r="48" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="83" t="s">
+      <c r="B48" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="54" t="s">
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="56"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="88"/>
       <c r="O48" s="20"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
@@ -2215,53 +2215,53 @@
         <v>30</v>
       </c>
       <c r="C49" s="90"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="75" t="s">
+      <c r="D49" s="91"/>
+      <c r="E49" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="52" t="s">
+      <c r="F49" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="G49" s="52" t="s">
+      <c r="G49" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="H49" s="75" t="s">
+      <c r="H49" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="I49" s="81"/>
-      <c r="J49" s="50" t="s">
+      <c r="I49" s="84"/>
+      <c r="J49" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="K49" s="52" t="s">
+      <c r="K49" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="L49" s="52"/>
-      <c r="M49" s="52" t="s">
+      <c r="L49" s="97"/>
+      <c r="M49" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="N49" s="52" t="s">
+      <c r="N49" s="97" t="s">
         <v>34</v>
       </c>
       <c r="O49" s="25"/>
     </row>
     <row r="50" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="91"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="51"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="98"/>
+      <c r="G50" s="98"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="85"/>
+      <c r="J50" s="94"/>
       <c r="K50" s="33" t="s">
         <v>35</v>
       </c>
       <c r="L50" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
+      <c r="M50" s="98"/>
+      <c r="N50" s="98"/>
       <c r="O50" s="25"/>
     </row>
     <row r="51" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2274,7 +2274,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="4"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="77" t="s">
+      <c r="I51" s="78" t="s">
         <v>8</v>
       </c>
       <c r="J51" s="40" t="s">
@@ -2287,16 +2287,16 @@
       <c r="O51" s="20"/>
     </row>
     <row r="52" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="93" t="s">
+      <c r="B52" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="93"/>
-      <c r="D52" s="93"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="79"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="2"/>
       <c r="H52" s="6"/>
-      <c r="I52" s="78"/>
+      <c r="I52" s="72"/>
       <c r="J52" s="41" t="s">
         <v>20</v>
       </c>
@@ -2307,16 +2307,16 @@
       <c r="O52" s="20"/>
     </row>
     <row r="53" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="93" t="s">
+      <c r="B53" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="79"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="2"/>
       <c r="H53" s="6"/>
-      <c r="I53" s="78"/>
+      <c r="I53" s="72"/>
       <c r="J53" s="41" t="s">
         <v>18</v>
       </c>
@@ -2327,16 +2327,16 @@
       <c r="O53" s="20"/>
     </row>
     <row r="54" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="93" t="s">
+      <c r="B54" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="93"/>
-      <c r="D54" s="93"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="2"/>
       <c r="H54" s="6"/>
-      <c r="I54" s="78"/>
+      <c r="I54" s="72"/>
       <c r="J54" s="41"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -2345,16 +2345,16 @@
       <c r="O54" s="20"/>
     </row>
     <row r="55" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="79" t="s">
+      <c r="B55" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="79"/>
-      <c r="D55" s="79"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="2"/>
       <c r="H55" s="6"/>
-      <c r="I55" s="78"/>
+      <c r="I55" s="72"/>
       <c r="J55" s="41"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -2363,16 +2363,16 @@
       <c r="O55" s="20"/>
     </row>
     <row r="56" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="79" t="s">
+      <c r="B56" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="79"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="2"/>
       <c r="H56" s="6"/>
-      <c r="I56" s="78"/>
+      <c r="I56" s="72"/>
       <c r="J56" s="41"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -2381,16 +2381,16 @@
       <c r="O56" s="20"/>
     </row>
     <row r="57" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="86" t="s">
+      <c r="B57" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="88"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="71"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="2"/>
       <c r="H57" s="6"/>
-      <c r="I57" s="78" t="s">
+      <c r="I57" s="72" t="s">
         <v>9</v>
       </c>
       <c r="J57" s="40" t="s">
@@ -2412,7 +2412,7 @@
       <c r="F58" s="9"/>
       <c r="G58" s="2"/>
       <c r="H58" s="6"/>
-      <c r="I58" s="78"/>
+      <c r="I58" s="72"/>
       <c r="J58" s="41" t="s">
         <v>20</v>
       </c>
@@ -2423,16 +2423,16 @@
       <c r="O58" s="20"/>
     </row>
     <row r="59" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="86" t="s">
+      <c r="B59" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="87"/>
-      <c r="D59" s="88"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="71"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="2"/>
       <c r="H59" s="6"/>
-      <c r="I59" s="78"/>
+      <c r="I59" s="72"/>
       <c r="J59" s="41" t="s">
         <v>18</v>
       </c>
@@ -2443,14 +2443,14 @@
       <c r="O59" s="20"/>
     </row>
     <row r="60" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="96"/>
-      <c r="C60" s="97"/>
-      <c r="D60" s="98"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="75"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="2"/>
       <c r="H60" s="6"/>
-      <c r="I60" s="78" t="s">
+      <c r="I60" s="72" t="s">
         <v>10</v>
       </c>
       <c r="J60" s="7"/>
@@ -2461,14 +2461,14 @@
       <c r="O60" s="20"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="96"/>
-      <c r="C61" s="97"/>
-      <c r="D61" s="98"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="75"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="2"/>
       <c r="H61" s="6"/>
-      <c r="I61" s="78"/>
+      <c r="I61" s="72"/>
       <c r="J61" s="7"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
@@ -2477,14 +2477,14 @@
       <c r="O61" s="20"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="96"/>
-      <c r="C62" s="97"/>
-      <c r="D62" s="98"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="75"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="2"/>
       <c r="H62" s="6"/>
-      <c r="I62" s="78"/>
+      <c r="I62" s="72"/>
       <c r="J62" s="7"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -2493,50 +2493,50 @@
       <c r="O62" s="20"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B63" s="66" t="s">
+      <c r="B63" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C63" s="66"/>
+      <c r="C63" s="50"/>
       <c r="D63" s="13"/>
-      <c r="E63" s="67" t="s">
+      <c r="E63" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
       <c r="H63" s="14"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="59"/>
-      <c r="K63" s="59"/>
-      <c r="L63" s="59"/>
-      <c r="M63" s="60"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="55"/>
       <c r="N63" s="13"/>
       <c r="O63" s="20"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="74" t="s">
+      <c r="B64" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="74"/>
+      <c r="C64" s="66"/>
       <c r="D64" s="13"/>
-      <c r="E64" s="67" t="s">
+      <c r="E64" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
       <c r="H64" s="14"/>
-      <c r="I64" s="68"/>
-      <c r="J64" s="61"/>
-      <c r="K64" s="61"/>
-      <c r="L64" s="61"/>
-      <c r="M64" s="62"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="57"/>
       <c r="N64" s="13"/>
       <c r="O64" s="20"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B65" s="66" t="s">
+      <c r="B65" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C65" s="66"/>
+      <c r="C65" s="50"/>
       <c r="D65" s="13"/>
       <c r="E65" s="19" t="s">
         <v>12</v>
@@ -2544,76 +2544,76 @@
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
       <c r="H65" s="14"/>
-      <c r="I65" s="68"/>
-      <c r="J65" s="57" t="s">
+      <c r="I65" s="52"/>
+      <c r="J65" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="K65" s="58"/>
-      <c r="L65" s="58"/>
-      <c r="M65" s="58"/>
+      <c r="K65" s="68"/>
+      <c r="L65" s="68"/>
+      <c r="M65" s="68"/>
       <c r="N65" s="15"/>
       <c r="O65" s="20"/>
     </row>
     <row r="66" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B66" s="66" t="s">
+      <c r="B66" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="66"/>
+      <c r="C66" s="50"/>
       <c r="D66" s="13"/>
-      <c r="E66" s="67" t="s">
+      <c r="E66" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
       <c r="H66" s="14"/>
-      <c r="I66" s="68"/>
-      <c r="J66" s="70" t="s">
+      <c r="I66" s="52"/>
+      <c r="J66" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="K66" s="71"/>
-      <c r="L66" s="71"/>
-      <c r="M66" s="71"/>
+      <c r="K66" s="60"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="60"/>
       <c r="N66" s="13"/>
       <c r="O66" s="20"/>
     </row>
     <row r="67" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="85" t="s">
+      <c r="B67" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="85"/>
-      <c r="D67" s="85"/>
-      <c r="E67" s="85"/>
-      <c r="F67" s="85"/>
-      <c r="G67" s="85"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
       <c r="H67" s="43"/>
-      <c r="I67" s="69"/>
-      <c r="J67" s="72" t="s">
+      <c r="I67" s="53"/>
+      <c r="J67" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="K67" s="73"/>
-      <c r="L67" s="73"/>
-      <c r="M67" s="73"/>
+      <c r="K67" s="63"/>
+      <c r="L67" s="63"/>
+      <c r="M67" s="63"/>
       <c r="N67" s="13"/>
       <c r="O67" s="20"/>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B68" s="23"/>
       <c r="C68" s="10"/>
-      <c r="D68" s="65" t="s">
+      <c r="D68" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="65"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="64"/>
       <c r="J68" s="10"/>
-      <c r="K68" s="65" t="s">
+      <c r="K68" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="L68" s="65"/>
-      <c r="M68" s="65"/>
-      <c r="N68" s="65"/>
+      <c r="L68" s="64"/>
+      <c r="M68" s="64"/>
+      <c r="N68" s="64"/>
       <c r="O68" s="20"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
@@ -2643,41 +2643,41 @@
     <row r="71" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B71" s="23"/>
       <c r="C71" s="19"/>
-      <c r="D71" s="65" t="s">
+      <c r="D71" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="65"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="64"/>
       <c r="J71" s="19"/>
-      <c r="K71" s="64" t="s">
+      <c r="K71" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="L71" s="64"/>
-      <c r="M71" s="64"/>
-      <c r="N71" s="64"/>
+      <c r="L71" s="65"/>
+      <c r="M71" s="65"/>
+      <c r="N71" s="65"/>
       <c r="O71" s="20"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72" s="23"/>
       <c r="C72" s="19"/>
-      <c r="D72" s="63" t="s">
+      <c r="D72" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="E72" s="63"/>
-      <c r="F72" s="63"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="63"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="58"/>
       <c r="J72" s="19"/>
-      <c r="K72" s="63" t="s">
+      <c r="K72" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="L72" s="63"/>
-      <c r="M72" s="63"/>
-      <c r="N72" s="63"/>
+      <c r="L72" s="58"/>
+      <c r="M72" s="58"/>
+      <c r="N72" s="58"/>
       <c r="O72" s="20"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.25">
@@ -2714,6 +2714,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="J26:M27"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I14:I19"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B12:D13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="B49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="I51:I56"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="E63:G63"/>
     <mergeCell ref="I63:I67"/>
@@ -2730,78 +2802,6 @@
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="E64:G64"/>
     <mergeCell ref="B65:C65"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="I51:I56"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="B49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I14:I19"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B12:D13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="I26:I30"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="J26:M27"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0.25" top="0" bottom="0" header="0" footer="0"/>

--- a/GBDS AUGUST FILES 2025/Guillermo Sample Promo Acknow.xlsx
+++ b/GBDS AUGUST FILES 2025/Guillermo Sample Promo Acknow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS AUGUST FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DE036B-E704-4BC1-8824-7CB5E6BC65EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A3AE5F-76F5-4383-8018-09B3D816666C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -814,6 +814,54 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -824,127 +872,79 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,23 +1478,23 @@
       <c r="O10" s="20"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="86" t="s">
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="88"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="56"/>
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1502,53 +1502,53 @@
         <v>30</v>
       </c>
       <c r="C12" s="90"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="95" t="s">
+      <c r="D12" s="50"/>
+      <c r="E12" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="97" t="s">
+      <c r="F12" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="97" t="s">
+      <c r="G12" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="95" t="s">
+      <c r="H12" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="84"/>
-      <c r="J12" s="91" t="s">
+      <c r="I12" s="82"/>
+      <c r="J12" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="97" t="s">
+      <c r="K12" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97" t="s">
+      <c r="L12" s="52"/>
+      <c r="M12" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="N12" s="97" t="s">
+      <c r="N12" s="52" t="s">
         <v>34</v>
       </c>
       <c r="O12" s="25"/>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="94"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="51"/>
       <c r="K13" s="33" t="s">
         <v>35</v>
       </c>
       <c r="L13" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
       <c r="O13" s="25"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1574,16 +1574,16 @@
       <c r="O14" s="20"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="2"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="72"/>
+      <c r="I15" s="79"/>
       <c r="J15" s="41" t="s">
         <v>20</v>
       </c>
@@ -1594,16 +1594,16 @@
       <c r="O15" s="20"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="2"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="72"/>
+      <c r="I16" s="79"/>
       <c r="J16" s="41" t="s">
         <v>18</v>
       </c>
@@ -1614,16 +1614,16 @@
       <c r="O16" s="20"/>
     </row>
     <row r="17" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="2"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="72"/>
+      <c r="I17" s="79"/>
       <c r="J17" s="41"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1641,7 +1641,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="2"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="72"/>
+      <c r="I18" s="79"/>
       <c r="J18" s="41"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1659,7 +1659,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="2"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="72"/>
+      <c r="I19" s="79"/>
       <c r="J19" s="41"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1668,16 +1668,16 @@
       <c r="O19" s="20"/>
     </row>
     <row r="20" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="71"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="2"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="72" t="s">
+      <c r="I20" s="79" t="s">
         <v>9</v>
       </c>
       <c r="J20" s="40" t="s">
@@ -1699,7 +1699,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="2"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="72"/>
+      <c r="I21" s="79"/>
       <c r="J21" s="41" t="s">
         <v>20</v>
       </c>
@@ -1710,16 +1710,16 @@
       <c r="O21" s="20"/>
     </row>
     <row r="22" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="2"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="72"/>
+      <c r="I22" s="79"/>
       <c r="J22" s="41" t="s">
         <v>18</v>
       </c>
@@ -1730,14 +1730,14 @@
       <c r="O22" s="20"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="73"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="98"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="2"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="76" t="s">
+      <c r="I23" s="94" t="s">
         <v>10</v>
       </c>
       <c r="J23" s="7"/>
@@ -1748,14 +1748,14 @@
       <c r="O23" s="20"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="73"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="98"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="2"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="77"/>
+      <c r="I24" s="95"/>
       <c r="J24" s="7"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1764,9 +1764,9 @@
       <c r="O24" s="20"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="75"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="98"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="2"/>
@@ -1780,50 +1780,50 @@
       <c r="O25" s="20"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="50"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="55"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="60"/>
       <c r="N26" s="13"/>
       <c r="O26" s="20"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="66"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
       <c r="H27" s="14"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="57"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="62"/>
       <c r="N27" s="13"/>
       <c r="O27" s="20"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="50"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="13"/>
       <c r="E28" s="19" t="s">
         <v>12</v>
@@ -1831,55 +1831,55 @@
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="14"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="67" t="s">
+      <c r="I28" s="68"/>
+      <c r="J28" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
       <c r="N28" s="15"/>
       <c r="O28" s="20"/>
     </row>
     <row r="29" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="50"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="51" t="s">
+      <c r="E29" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
       <c r="H29" s="14"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="59" t="s">
+      <c r="I29" s="68"/>
+      <c r="J29" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
       <c r="N29" s="13"/>
       <c r="O29" s="20"/>
     </row>
     <row r="30" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
       <c r="H30" s="43"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="62" t="s">
+      <c r="I30" s="69"/>
+      <c r="J30" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
       <c r="N30" s="13"/>
       <c r="O30" s="20"/>
     </row>
@@ -1939,32 +1939,32 @@
       <c r="H34" s="64"/>
       <c r="I34" s="64"/>
       <c r="J34" s="19"/>
-      <c r="K34" s="65" t="s">
+      <c r="K34" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
       <c r="O34" s="20"/>
     </row>
     <row r="35" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="23"/>
       <c r="C35" s="19"/>
-      <c r="D35" s="58" t="s">
+      <c r="D35" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
       <c r="J35" s="19"/>
-      <c r="K35" s="58" t="s">
+      <c r="K35" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
       <c r="O35" s="20"/>
     </row>
     <row r="36" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2191,23 +2191,23 @@
       <c r="O47" s="20"/>
     </row>
     <row r="48" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="81" t="s">
+      <c r="B48" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="81"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="83"/>
-      <c r="J48" s="86" t="s">
+      <c r="C48" s="84"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="K48" s="87"/>
-      <c r="L48" s="87"/>
-      <c r="M48" s="87"/>
-      <c r="N48" s="88"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="56"/>
       <c r="O48" s="20"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
@@ -2215,53 +2215,53 @@
         <v>30</v>
       </c>
       <c r="C49" s="90"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="95" t="s">
+      <c r="D49" s="50"/>
+      <c r="E49" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="97" t="s">
+      <c r="F49" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="G49" s="97" t="s">
+      <c r="G49" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H49" s="95" t="s">
+      <c r="H49" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="I49" s="84"/>
-      <c r="J49" s="91" t="s">
+      <c r="I49" s="82"/>
+      <c r="J49" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="K49" s="97" t="s">
+      <c r="K49" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="L49" s="97"/>
-      <c r="M49" s="97" t="s">
+      <c r="L49" s="52"/>
+      <c r="M49" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="N49" s="97" t="s">
+      <c r="N49" s="52" t="s">
         <v>34</v>
       </c>
       <c r="O49" s="25"/>
     </row>
     <row r="50" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="92"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="98"/>
-      <c r="G50" s="98"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="94"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="83"/>
+      <c r="J50" s="51"/>
       <c r="K50" s="33" t="s">
         <v>35</v>
       </c>
       <c r="L50" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="M50" s="98"/>
-      <c r="N50" s="98"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="53"/>
       <c r="O50" s="25"/>
     </row>
     <row r="51" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2287,16 +2287,16 @@
       <c r="O51" s="20"/>
     </row>
     <row r="52" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="79" t="s">
+      <c r="B52" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="93"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="2"/>
       <c r="H52" s="6"/>
-      <c r="I52" s="72"/>
+      <c r="I52" s="79"/>
       <c r="J52" s="41" t="s">
         <v>20</v>
       </c>
@@ -2307,16 +2307,16 @@
       <c r="O52" s="20"/>
     </row>
     <row r="53" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="79" t="s">
+      <c r="B53" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="2"/>
       <c r="H53" s="6"/>
-      <c r="I53" s="72"/>
+      <c r="I53" s="79"/>
       <c r="J53" s="41" t="s">
         <v>18</v>
       </c>
@@ -2327,16 +2327,16 @@
       <c r="O53" s="20"/>
     </row>
     <row r="54" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="79" t="s">
+      <c r="B54" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="93"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="2"/>
       <c r="H54" s="6"/>
-      <c r="I54" s="72"/>
+      <c r="I54" s="79"/>
       <c r="J54" s="41"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -2354,7 +2354,7 @@
       <c r="F55" s="9"/>
       <c r="G55" s="2"/>
       <c r="H55" s="6"/>
-      <c r="I55" s="72"/>
+      <c r="I55" s="79"/>
       <c r="J55" s="41"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -2372,7 +2372,7 @@
       <c r="F56" s="9"/>
       <c r="G56" s="2"/>
       <c r="H56" s="6"/>
-      <c r="I56" s="72"/>
+      <c r="I56" s="79"/>
       <c r="J56" s="41"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -2381,16 +2381,16 @@
       <c r="O56" s="20"/>
     </row>
     <row r="57" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="69" t="s">
+      <c r="B57" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="70"/>
-      <c r="D57" s="71"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="88"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="2"/>
       <c r="H57" s="6"/>
-      <c r="I57" s="72" t="s">
+      <c r="I57" s="79" t="s">
         <v>9</v>
       </c>
       <c r="J57" s="40" t="s">
@@ -2412,7 +2412,7 @@
       <c r="F58" s="9"/>
       <c r="G58" s="2"/>
       <c r="H58" s="6"/>
-      <c r="I58" s="72"/>
+      <c r="I58" s="79"/>
       <c r="J58" s="41" t="s">
         <v>20</v>
       </c>
@@ -2423,16 +2423,16 @@
       <c r="O58" s="20"/>
     </row>
     <row r="59" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="69" t="s">
+      <c r="B59" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="70"/>
-      <c r="D59" s="71"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="88"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="2"/>
       <c r="H59" s="6"/>
-      <c r="I59" s="72"/>
+      <c r="I59" s="79"/>
       <c r="J59" s="41" t="s">
         <v>18</v>
       </c>
@@ -2443,14 +2443,14 @@
       <c r="O59" s="20"/>
     </row>
     <row r="60" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="73"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="98"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="2"/>
       <c r="H60" s="6"/>
-      <c r="I60" s="72" t="s">
+      <c r="I60" s="79" t="s">
         <v>10</v>
       </c>
       <c r="J60" s="7"/>
@@ -2461,14 +2461,14 @@
       <c r="O60" s="20"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="73"/>
-      <c r="C61" s="74"/>
-      <c r="D61" s="75"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="98"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="2"/>
       <c r="H61" s="6"/>
-      <c r="I61" s="72"/>
+      <c r="I61" s="79"/>
       <c r="J61" s="7"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
@@ -2477,14 +2477,14 @@
       <c r="O61" s="20"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="73"/>
-      <c r="C62" s="74"/>
-      <c r="D62" s="75"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="98"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="2"/>
       <c r="H62" s="6"/>
-      <c r="I62" s="72"/>
+      <c r="I62" s="79"/>
       <c r="J62" s="7"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -2493,50 +2493,50 @@
       <c r="O62" s="20"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B63" s="50" t="s">
+      <c r="B63" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C63" s="50"/>
+      <c r="C63" s="66"/>
       <c r="D63" s="13"/>
-      <c r="E63" s="51" t="s">
+      <c r="E63" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
       <c r="H63" s="14"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="55"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="59"/>
+      <c r="L63" s="59"/>
+      <c r="M63" s="60"/>
       <c r="N63" s="13"/>
       <c r="O63" s="20"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="66" t="s">
+      <c r="B64" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="66"/>
+      <c r="C64" s="74"/>
       <c r="D64" s="13"/>
-      <c r="E64" s="51" t="s">
+      <c r="E64" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
       <c r="H64" s="14"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="56"/>
-      <c r="K64" s="56"/>
-      <c r="L64" s="56"/>
-      <c r="M64" s="57"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="61"/>
+      <c r="L64" s="61"/>
+      <c r="M64" s="62"/>
       <c r="N64" s="13"/>
       <c r="O64" s="20"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C65" s="50"/>
+      <c r="C65" s="66"/>
       <c r="D65" s="13"/>
       <c r="E65" s="19" t="s">
         <v>12</v>
@@ -2544,55 +2544,55 @@
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
       <c r="H65" s="14"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="67" t="s">
+      <c r="I65" s="68"/>
+      <c r="J65" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="K65" s="68"/>
-      <c r="L65" s="68"/>
-      <c r="M65" s="68"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="58"/>
+      <c r="M65" s="58"/>
       <c r="N65" s="15"/>
       <c r="O65" s="20"/>
     </row>
     <row r="66" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B66" s="50" t="s">
+      <c r="B66" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="50"/>
+      <c r="C66" s="66"/>
       <c r="D66" s="13"/>
-      <c r="E66" s="51" t="s">
+      <c r="E66" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="F66" s="51"/>
-      <c r="G66" s="51"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
       <c r="H66" s="14"/>
-      <c r="I66" s="52"/>
-      <c r="J66" s="59" t="s">
+      <c r="I66" s="68"/>
+      <c r="J66" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="K66" s="60"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="60"/>
+      <c r="K66" s="71"/>
+      <c r="L66" s="71"/>
+      <c r="M66" s="71"/>
       <c r="N66" s="13"/>
       <c r="O66" s="20"/>
     </row>
     <row r="67" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="61" t="s">
+      <c r="B67" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="61"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="75"/>
       <c r="H67" s="43"/>
-      <c r="I67" s="53"/>
-      <c r="J67" s="62" t="s">
+      <c r="I67" s="69"/>
+      <c r="J67" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="K67" s="63"/>
-      <c r="L67" s="63"/>
-      <c r="M67" s="63"/>
+      <c r="K67" s="73"/>
+      <c r="L67" s="73"/>
+      <c r="M67" s="73"/>
       <c r="N67" s="13"/>
       <c r="O67" s="20"/>
     </row>
@@ -2652,32 +2652,32 @@
       <c r="H71" s="64"/>
       <c r="I71" s="64"/>
       <c r="J71" s="19"/>
-      <c r="K71" s="65" t="s">
+      <c r="K71" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="L71" s="65"/>
-      <c r="M71" s="65"/>
-      <c r="N71" s="65"/>
+      <c r="L71" s="63"/>
+      <c r="M71" s="63"/>
+      <c r="N71" s="63"/>
       <c r="O71" s="20"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72" s="23"/>
       <c r="C72" s="19"/>
-      <c r="D72" s="58" t="s">
+      <c r="D72" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="58"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="65"/>
+      <c r="H72" s="65"/>
+      <c r="I72" s="65"/>
       <c r="J72" s="19"/>
-      <c r="K72" s="58" t="s">
+      <c r="K72" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="L72" s="58"/>
-      <c r="M72" s="58"/>
-      <c r="N72" s="58"/>
+      <c r="L72" s="65"/>
+      <c r="M72" s="65"/>
+      <c r="N72" s="65"/>
       <c r="O72" s="20"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.25">
@@ -2714,28 +2714,56 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="J26:M27"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="I26:I30"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="D68:I68"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="D71:I71"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="I63:I67"/>
+    <mergeCell ref="J63:M64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="I51:I56"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="B49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="F49:F50"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I14:I19"/>
@@ -2752,56 +2780,28 @@
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="B49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="I51:I56"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="I63:I67"/>
-    <mergeCell ref="J63:M64"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="D68:I68"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="D71:I71"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="J26:M27"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0.25" top="0" bottom="0" header="0" footer="0"/>
